--- a/biology/Biochimie/Résolvine/Résolvine.xlsx
+++ b/biology/Biochimie/Résolvine/Résolvine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9solvine</t>
+          <t>Résolvine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les résolvines sont des molécules dérivant des acides gras omega 3 : l'acide éicosapentaénoïque (EPA) et l'acide docosahexaénoïque (DHA). Ils sont produits par la voie de la COX-2. Expérimentalement, les résolvines réduisent l'inflammation en "inhibant" la production des molécules inflammatoires et la migration des cellules inflammatoires au site lésionnel. Elles ont montré une efficacité dans le cas de l'insuffisance rénale[1].
-D'autres actions biologiques ont été mises en évidence comme une réduction de la douleur inflammatoire[2]. Elles pourraient également être utile contre la maladie de Parkinson[3], la maladie d'Alzheimer[3],  la parodontie[4], contre le cancer[5],[6], contre le sepsis[7],[8],[9],[10],[11],[12].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les résolvines sont des molécules dérivant des acides gras omega 3 : l'acide éicosapentaénoïque (EPA) et l'acide docosahexaénoïque (DHA). Ils sont produits par la voie de la COX-2. Expérimentalement, les résolvines réduisent l'inflammation en "inhibant" la production des molécules inflammatoires et la migration des cellules inflammatoires au site lésionnel. Elles ont montré une efficacité dans le cas de l'insuffisance rénale.
+D'autres actions biologiques ont été mises en évidence comme une réduction de la douleur inflammatoire. Elles pourraient également être utile contre la maladie de Parkinson, la maladie d'Alzheimer,  la parodontie, contre le cancer contre le sepsis.
 </t>
         </is>
       </c>
